--- a/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1.xlsx
+++ b/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
   <si>
     <t>No</t>
   </si>
@@ -393,6 +393,10 @@
   </si>
   <si>
     <t>DV-1978</t>
+  </si>
+  <si>
+    <t>DV-2023</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1074,6 +1078,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1100,9 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1490,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1638,7 +1642,9 @@
       <c r="Q2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="77"/>
+      <c r="R2" s="77" t="s">
+        <v>107</v>
+      </c>
       <c r="S2" s="77"/>
       <c r="T2" s="44"/>
       <c r="U2" s="52"/>
@@ -1696,7 +1702,7 @@
         <v>72</v>
       </c>
       <c r="R3" s="77"/>
-      <c r="S3" s="44">
+      <c r="S3" s="77">
         <v>6491</v>
       </c>
       <c r="T3" s="44"/>
@@ -1752,7 +1758,7 @@
       <c r="Q4" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="78" t="s">
         <v>90</v>
       </c>
       <c r="S4" s="77" t="s">
@@ -1811,7 +1817,7 @@
       <c r="Q5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="87" t="s">
+      <c r="R5" s="78" t="s">
         <v>95</v>
       </c>
       <c r="S5" s="44"/>
@@ -5742,6 +5748,8 @@
     <hyperlink ref="R4" r:id="rId2" display="http://192.168.60.204/browse/DV-1998"/>
     <hyperlink ref="R6" r:id="rId3"/>
     <hyperlink ref="R7" r:id="rId4"/>
+    <hyperlink ref="S3" r:id="rId5" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=6491"/>
+    <hyperlink ref="R2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5920,19 +5928,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5970,8 +5978,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5983,8 +5991,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5996,8 +6004,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6009,8 +6017,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6022,8 +6030,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6035,8 +6043,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6048,8 +6056,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6061,8 +6069,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6123,36 +6131,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6437,36 +6445,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6751,36 +6759,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7067,36 +7075,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
